--- a/data/skol_termer.xlsx
+++ b/data/skol_termer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="582">
   <si>
     <t>Ordningsnummer</t>
   </si>
@@ -50,12 +50,27 @@
     <t>Skol1</t>
   </si>
   <si>
+    <t>Skola</t>
+  </si>
+  <si>
+    <t>Bakgrundsvariabel</t>
+  </si>
+  <si>
+    <t>Biblioteksnamn</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Öppet</t>
+  </si>
+  <si>
+    <t>Skol2</t>
+  </si>
+  <si>
     <t>ID-nummer i Survey&amp;Report</t>
   </si>
   <si>
-    <t>Bakgrundsvariabel</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -68,7 +83,7 @@
     <t>Respondent-ID</t>
   </si>
   <si>
-    <t>Skol2</t>
+    <t>Skol3</t>
   </si>
   <si>
     <t>Namn på den ursprungligen vidtalade respondenten</t>
@@ -77,10 +92,7 @@
     <t>Visningsnamn</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Skol3</t>
+    <t>Skol4</t>
   </si>
   <si>
     <t>Förnamn respondent</t>
@@ -89,7 +101,7 @@
     <t>Förnamn</t>
   </si>
   <si>
-    <t>Skol4</t>
+    <t>Skol5</t>
   </si>
   <si>
     <t>Efternamn respondent</t>
@@ -98,22 +110,19 @@
     <t>Efternamn</t>
   </si>
   <si>
-    <t>Skol5</t>
+    <t>Skol6</t>
   </si>
   <si>
     <t>Skolnamn</t>
   </si>
   <si>
-    <t>Biblioteksnamn</t>
-  </si>
-  <si>
-    <t>Öppet</t>
+    <t>Organisationsnamn</t>
   </si>
   <si>
     <t>Organisation</t>
   </si>
   <si>
-    <t>Skol6</t>
+    <t>Skol7</t>
   </si>
   <si>
     <t>Tillsänd e-postadress</t>
@@ -125,7 +134,7 @@
     <t>E-post</t>
   </si>
   <si>
-    <t>Skol7</t>
+    <t>Skol8</t>
   </si>
   <si>
     <t>Gatuadress</t>
@@ -134,13 +143,13 @@
     <t>Adress</t>
   </si>
   <si>
-    <t>Skol8</t>
+    <t>Skol9</t>
   </si>
   <si>
     <t>Postnummer</t>
   </si>
   <si>
-    <t>Skol9</t>
+    <t>Skol10</t>
   </si>
   <si>
     <t>Postort</t>
@@ -149,7 +158,7 @@
     <t>Stad</t>
   </si>
   <si>
-    <t>Skol10</t>
+    <t>Skol11</t>
   </si>
   <si>
     <t>Telefon</t>
@@ -158,7 +167,7 @@
     <t>Telefonnummer</t>
   </si>
   <si>
-    <t>Skol11</t>
+    <t>Skol12</t>
   </si>
   <si>
     <t>Mobiltelefon</t>
@@ -167,7 +176,7 @@
     <t>Mobiltelefonnummer</t>
   </si>
   <si>
-    <t>Skol12</t>
+    <t>Skol13</t>
   </si>
   <si>
     <t>Kommunkod</t>
@@ -176,7 +185,7 @@
     <t>Geografi</t>
   </si>
   <si>
-    <t>Skol13</t>
+    <t>Skol14</t>
   </si>
   <si>
     <t>Skol-ID, Skolverkets numreringssystem</t>
@@ -188,7 +197,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Skol14</t>
+    <t>Skol15</t>
   </si>
   <si>
     <t>Skolenehetens ID-nummer, Skolverkets numreringssystem</t>
@@ -197,7 +206,7 @@
     <t>Enhets-ID</t>
   </si>
   <si>
-    <t>Skol15</t>
+    <t>Skol16</t>
   </si>
   <si>
     <t>Grundskola/gymnasium</t>
@@ -209,7 +218,7 @@
     <t>11= grundskola, 21=gymnasium, 13=grundsärskola, 23=gymnasiesärskola</t>
   </si>
   <si>
-    <t>Skol16</t>
+    <t>Skol17</t>
   </si>
   <si>
     <t>Skolhuvudman, kategorierserad</t>
@@ -221,7 +230,7 @@
     <t>01=kommunal, 05=fristående huvudman, 03=statlig huvudman, 04=sameskola</t>
   </si>
   <si>
-    <t>Skol17</t>
+    <t>Skol18</t>
   </si>
   <si>
     <t>Skolverkets löpnummer</t>
@@ -233,7 +242,7 @@
     <t>Löpnummer</t>
   </si>
   <si>
-    <t>Skol18</t>
+    <t>Skol19</t>
   </si>
   <si>
     <t>Totalt antal årsarbetare på skolan</t>
@@ -251,7 +260,7 @@
     <t>Årsarbetare</t>
   </si>
   <si>
-    <t>Skol19</t>
+    <t>Skol20</t>
   </si>
   <si>
     <t>Betygsmedelvärde i avgångsklasserna grundskola 2011</t>
@@ -266,7 +275,7 @@
     <t>Betyg G</t>
   </si>
   <si>
-    <t>Skol20</t>
+    <t>Skol21</t>
   </si>
   <si>
     <t>Betygsmedelvärde i avgångsklasserna gymnaisum 2011</t>
@@ -278,7 +287,7 @@
     <t>Betyg GY</t>
   </si>
   <si>
-    <t>Skol21</t>
+    <t>Skol22</t>
   </si>
   <si>
     <t>Antal registrerade elever på skolenheten</t>
@@ -290,13 +299,13 @@
     <t>Totalt antal</t>
   </si>
   <si>
-    <t>Skol22</t>
+    <t>Skol23</t>
   </si>
   <si>
     <t>Löpnummer efter vilken ordning enkäterna har öppnats</t>
   </si>
   <si>
-    <t>Skol23</t>
+    <t>Skol24</t>
   </si>
   <si>
     <t>Har skolenheten tillgång till ett skolbibliotek, det vill säga en gemensam samling av skön-, facklitteratur och andra medier som är alfabetiskt/systematiskt ordnad? Här avses inte bokrum/-samlingar med enbart läroböcker eller klassuppsättningar av olika skönlitterära- eller faktaböcker, inte heller någon typ av samling som inte är systematiskt ordnad.</t>
@@ -318,7 +327,7 @@
 2 = Nej</t>
   </si>
   <si>
-    <t>Skol24</t>
+    <t>Skol25</t>
   </si>
   <si>
     <t>Har skolenheten tillgång till ett skolbibliotek, det vill säga en gemensam samling av skön-, facklitteratur och andra medier som är alfabetiskt/systematiskt ordnad? Här avses inte bokrum/-samlingar med enbart läroböcker eller klassuppsättningar av olika skönlitterära- eller faktaböcker, inte heller någon typ av samling som inte är systematiskt ordnad. - Eventuell kommentar till svaret</t>
@@ -330,7 +339,7 @@
     <t>none</t>
   </si>
   <si>
-    <t>Skol25</t>
+    <t>Skol26</t>
   </si>
   <si>
     <t>Var är skolbiblioteket beläget i förhållande till skolenhetens huvudbyggnad?</t>
@@ -350,7 +359,7 @@
 3 = Längre bort än ovanstående</t>
   </si>
   <si>
-    <t>Skol26</t>
+    <t>Skol27</t>
   </si>
   <si>
     <t>Var är skolbiblioteket beläget i förhållande till skolenhetens huvudbyggnad? - Eventuell kommentar till svaret</t>
@@ -359,7 +368,7 @@
     <t>VAR01C</t>
   </si>
   <si>
-    <t>Skol27</t>
+    <t>Skol28</t>
   </si>
   <si>
     <t>Delar skolenheten skolbibliotek med någon annan skolenhet?</t>
@@ -371,7 +380,7 @@
     <t>VAR02</t>
   </si>
   <si>
-    <t>Skol28</t>
+    <t>Skol29</t>
   </si>
   <si>
     <t>Delar skolenheten skolbibliotek med någon annan skolenhet? - Om ja, vad heter den skolenheten, adress, kommun?</t>
@@ -380,7 +389,7 @@
     <t>VAR02C</t>
   </si>
   <si>
-    <t>Skol29</t>
+    <t>Skol30</t>
   </si>
   <si>
     <t>Är skolbibliotekets medier förtecknade i ett manuellt eller datoriserat katalogsystem?</t>
@@ -402,7 +411,7 @@
 5 = Nej, inte förtecknade alls, bara systematiskt ordnade</t>
   </si>
   <si>
-    <t>Skol30</t>
+    <t>Skol31</t>
   </si>
   <si>
     <t>Är skolbiblioteket integrerat med folkbiblioteket i kommunen? Integrerat innebär att ett beslut tagits på politisk nivå om att skolbiblioteket ska dela resurser med något av kommunens folkbibliotek; filial eller huvudbibliotek. Om det förekommer ett visst samarbete med folkbiblioteket men beslut om detta inte tagits på politisk nivå är skolbiblioteket inte integrerat.</t>
@@ -421,7 +430,7 @@
 5 = Ja, folkbibliotekets personal har också i uppgift att sköta om skolbiblioteket</t>
   </si>
   <si>
-    <t>Skol31</t>
+    <t>Skol32</t>
   </si>
   <si>
     <t>Är skolbiblioteket integrerat med folkbiblioteket i kommunen? Integrerat innebär att ett beslut tagits på politisk nivå om att skolbiblioteket ska dela resurser med något av kommunens folkbibliotek; filial eller huvudbibliotek. Om det förekommer ett visst samarbete med folkbiblioteket men beslut om detta inte tagits på politisk nivå är skolbiblioteket inte integrerat. - Eventuell förklaring till ovanstående svar</t>
@@ -430,7 +439,7 @@
     <t>VAR04C</t>
   </si>
   <si>
-    <t>Skol32</t>
+    <t>Skol33</t>
   </si>
   <si>
     <t>Totalt antal timmar avsatt bemanning under en normal vecka</t>
@@ -442,7 +451,7 @@
     <t>Tot_personaltimmar</t>
   </si>
   <si>
-    <t>Skol33</t>
+    <t>Skol34</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Skolbibliotekarie - fackutbildad bibliotekarie</t>
@@ -457,7 +466,7 @@
     <t>Numeric - Multiple</t>
   </si>
   <si>
-    <t>Skol34</t>
+    <t>Skol35</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Gymnasiebibliotekarie - fackutbildad bibliotekarie</t>
@@ -469,7 +478,7 @@
     <t>VAR05_2</t>
   </si>
   <si>
-    <t>Skol35</t>
+    <t>Skol36</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Bibliotekspedagog - lärare med utbildning i bibliotekskunskap</t>
@@ -481,7 +490,7 @@
     <t>VAR05_3</t>
   </si>
   <si>
-    <t>Skol36</t>
+    <t>Skol37</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Lärarbibliotekarie - en lärare som tjänstgör i skolbiblioteket</t>
@@ -493,7 +502,7 @@
     <t>VAR05_4</t>
   </si>
   <si>
-    <t>Skol37</t>
+    <t>Skol38</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Biblioteksassistent - annan skolbibliotekspersonal än ovan</t>
@@ -505,7 +514,7 @@
     <t>VAR05_5</t>
   </si>
   <si>
-    <t>Skol38</t>
+    <t>Skol39</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Personal med övrig utbildning/tjänst än ovanstående</t>
@@ -517,7 +526,7 @@
     <t>VAR05_6</t>
   </si>
   <si>
-    <t>Skol39</t>
+    <t>Skol40</t>
   </si>
   <si>
     <t>Hur många personaltimmar en normal skolvecka är avsatta för skolbibliotekets verksamhet? Ange 0 överallt om det inte är några personaltimmar avsatta för skolbiblioteksverksamhet. Frivilligt oavlönat arbete redovisas inte. Arbetsinsatser som görs utan att vara avsatta - "i mån av tid, utanför annan avsatt tid" - räknas inte. Vi vill mäta hur mycket resurser som avsätts till skolbiblioteken. Integrerade bibliotek räknar de timmar som särskilt ägnas åt skolbiblioteksfunktionen. - Eventuell kommenstar till svaret</t>
@@ -529,7 +538,7 @@
     <t>VAR05C</t>
   </si>
   <si>
-    <t>Skol40</t>
+    <t>Skol41</t>
   </si>
   <si>
     <t>Hur många timmar en normal skolvecka är skolbiblioteket tillgängligt på olika sätt? Om skolbiblioteket alltid är öppet för alla elever oavsett om det är bemannat av skolbibliotekspersonal eller inte, ange skolenhetens öppettimmar. - Bemannat - skolbibliotekspersonal finns på plats i biblioteket - öppet för alla elever</t>
@@ -544,7 +553,7 @@
     <t>VAR06_1</t>
   </si>
   <si>
-    <t>Skol41</t>
+    <t>Skol42</t>
   </si>
   <si>
     <t>Hur många timmar en normal skolvecka är skolbiblioteket tillgängligt på olika sätt? Om skolbiblioteket alltid är öppet för alla elever oavsett om det är bemannat av skolbibliotekspersonal eller inte, ange skolenhetens öppettimmar. - Bemannat - skolbibliotekspersonal finns på plats i biblioteket&amp;nbsp;- öppet för enskilda klasser</t>
@@ -556,7 +565,7 @@
     <t>VAR06_2</t>
   </si>
   <si>
-    <t>Skol42</t>
+    <t>Skol43</t>
   </si>
   <si>
     <t>Hur många timmar en normal skolvecka är skolbiblioteket tillgängligt på olika sätt? Om skolbiblioteket alltid är öppet för alla elever oavsett om det är bemannat av skolbibliotekspersonal eller inte, ange skolenhetens öppettimmar. - Obemannat - ingen skolbibliotekspersonal - öppet för alla elever</t>
@@ -568,7 +577,7 @@
     <t>VAR06_3</t>
   </si>
   <si>
-    <t>Skol43</t>
+    <t>Skol44</t>
   </si>
   <si>
     <t>Hur många timmar en normal skolvecka är skolbiblioteket tillgängligt på olika sätt? Om skolbiblioteket alltid är öppet för alla elever oavsett om det är bemannat av skolbibliotekspersonal eller inte, ange skolenhetens öppettimmar. - Obemannat - ingen skolbibliotekspersonal - öppet för enskilda klasser</t>
@@ -580,7 +589,7 @@
     <t>VAR06_4</t>
   </si>
   <si>
-    <t>Skol44</t>
+    <t>Skol45</t>
   </si>
   <si>
     <t>Har skolbiblioteket ansvar för skolans läromedelshantering/-utlåning?</t>
@@ -597,7 +606,7 @@
 3 = Nej</t>
   </si>
   <si>
-    <t>Skol45</t>
+    <t>Skol46</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på något av de svenska minoritetsspråken finska, meänkieli, samiska, romani chib eller jiddisch - Detta finns på skolbiblioteket</t>
@@ -612,7 +621,7 @@
     <t>Matrix - Check Boxes</t>
   </si>
   <si>
-    <t>Skol46</t>
+    <t>Skol47</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på något av de svenska minoritetsspråken finska, meänkieli, samiska, romani chib eller jiddisch - Detta finns inte på skolbiblioteket</t>
@@ -624,7 +633,7 @@
     <t>VAR08_1_2</t>
   </si>
   <si>
-    <t>Skol47</t>
+    <t>Skol48</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på något av de svenska minoritetsspråken finska, meänkieli, samiska, romani chib eller jiddisch - Inte relevant för eleverna på skolan</t>
@@ -636,7 +645,7 @@
     <t>VAR08_1_3</t>
   </si>
   <si>
-    <t>Skol48</t>
+    <t>Skol49</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på andra språk än svenska och engelska för elever av utländsk härkomst - Detta finns på skolbiblioteket</t>
@@ -648,7 +657,7 @@
     <t>VAR08_2_1</t>
   </si>
   <si>
-    <t>Skol49</t>
+    <t>Skol50</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på andra språk än svenska och engelska för elever av utländsk härkomst - Detta finns inte på skolbiblioteket</t>
@@ -660,7 +669,7 @@
     <t>VAR08_2_2</t>
   </si>
   <si>
-    <t>Skol50</t>
+    <t>Skol51</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Titlar på andra språk än svenska och engelska för elever av utländsk härkomst - Inte relevant för eleverna på skolan</t>
@@ -672,7 +681,7 @@
     <t>VAR08_2_3</t>
   </si>
   <si>
-    <t>Skol51</t>
+    <t>Skol52</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Eget bestånd av anpassade medier för elever med lässvårigheter - elever med funktionsnedsättningar - ej TPB-laddningar - Detta finns på skolbiblioteket</t>
@@ -684,7 +693,7 @@
     <t>VAR08_3_1</t>
   </si>
   <si>
-    <t>Skol52</t>
+    <t>Skol53</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Eget bestånd av anpassade medier för elever med lässvårigheter - elever med funktionsnedsättningar - ej TPB-laddningar - Detta finns inte på skolbiblioteket</t>
@@ -696,7 +705,7 @@
     <t>VAR08_3_2</t>
   </si>
   <si>
-    <t>Skol53</t>
+    <t>Skol54</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Eget bestånd av anpassade medier för elever med lässvårigheter - elever med funktionsnedsättningar - ej TPB-laddningar - Inte relevant för eleverna på skolan</t>
@@ -708,7 +717,7 @@
     <t>VAR08_3_3</t>
   </si>
   <si>
-    <t>Skol54</t>
+    <t>Skol55</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Talbokstillstånd från TPB - Talboks- och punktskriftsbiblioteket - Detta finns på skolbiblioteket</t>
@@ -720,7 +729,7 @@
     <t>VAR08_4_1</t>
   </si>
   <si>
-    <t>Skol55</t>
+    <t>Skol56</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Talbokstillstånd från TPB - Talboks- och punktskriftsbiblioteket - Detta finns inte på skolbiblioteket</t>
@@ -732,7 +741,7 @@
     <t>VAR08_4_2</t>
   </si>
   <si>
-    <t>Skol56</t>
+    <t>Skol57</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Talbokstillstånd från TPB - Talboks- och punktskriftsbiblioteket - Inte relevant för eleverna på skolan</t>
@@ -744,7 +753,7 @@
     <t>VAR08_4_3</t>
   </si>
   <si>
-    <t>Skol57</t>
+    <t>Skol58</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Skriven plan för skolbibliotekets arbete som antagits av skolledningen - Detta finns på skolbiblioteket</t>
@@ -756,7 +765,7 @@
     <t>VAR08_5_1</t>
   </si>
   <si>
-    <t>Skol58</t>
+    <t>Skol59</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Skriven plan för skolbibliotekets arbete som antagits av skolledningen - Detta finns inte på skolbiblioteket</t>
@@ -768,7 +777,7 @@
     <t>VAR08_5_2</t>
   </si>
   <si>
-    <t>Skol59</t>
+    <t>Skol60</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Skriven plan för skolbibliotekets arbete som antagits av skolledningen - Inte relevant för eleverna på skolan</t>
@@ -780,7 +789,7 @@
     <t>VAR08_5_3</t>
   </si>
   <si>
-    <t>Skol60</t>
+    <t>Skol61</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Organiserat elevinflytande över skolbibliotekets verksamhet - Detta finns på skolbiblioteket</t>
@@ -792,7 +801,7 @@
     <t>VAR08_6_1</t>
   </si>
   <si>
-    <t>Skol61</t>
+    <t>Skol62</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Organiserat elevinflytande över skolbibliotekets verksamhet - Detta finns inte på skolbiblioteket</t>
@@ -804,7 +813,7 @@
     <t>VAR08_6_2</t>
   </si>
   <si>
-    <t>Skol62</t>
+    <t>Skol63</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Organiserat elevinflytande över skolbibliotekets verksamhet - Inte relevant för eleverna på skolan</t>
@@ -816,7 +825,7 @@
     <t>VAR08_6_3</t>
   </si>
   <si>
-    <t>Skol63</t>
+    <t>Skol64</t>
   </si>
   <si>
     <t>Vad finns och vad finns inte på skolbiblioteket? - Eventuell kommentar till ovanstående frågor</t>
@@ -828,7 +837,7 @@
     <t>VAR08C</t>
   </si>
   <si>
-    <t>Skol64</t>
+    <t>Skol65</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i informationssökning - Detta görs av skolbibliotekets personal</t>
@@ -843,7 +852,7 @@
     <t>VAR09_1_1</t>
   </si>
   <si>
-    <t>Skol65</t>
+    <t>Skol66</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i informationssökning - Detta görs inte av skolbibliotekets personal</t>
@@ -855,7 +864,7 @@
     <t>VAR09_1_2</t>
   </si>
   <si>
-    <t>Skol66</t>
+    <t>Skol67</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i informationssökning - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -867,7 +876,7 @@
     <t>VAR09_1_3</t>
   </si>
   <si>
-    <t>Skol67</t>
+    <t>Skol68</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i källkritik - Detta görs av skolbibliotekets personal</t>
@@ -879,7 +888,7 @@
     <t>VAR09_2_1</t>
   </si>
   <si>
-    <t>Skol68</t>
+    <t>Skol69</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i källkritik - Detta görs inte av skolbibliotekets personal</t>
@@ -891,7 +900,7 @@
     <t>VAR09_2_2</t>
   </si>
   <si>
-    <t>Skol69</t>
+    <t>Skol70</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal undervisar eleverna i källkritik - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -903,7 +912,7 @@
     <t>VAR09_2_3</t>
   </si>
   <si>
-    <t>Skol70</t>
+    <t>Skol71</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal ordnar läsfrämjande aktiviteter - t.ex. bokprat, boksamtal - Detta görs av skolbibliotekets personal</t>
@@ -915,7 +924,7 @@
     <t>VAR09_3_1</t>
   </si>
   <si>
-    <t>Skol71</t>
+    <t>Skol72</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal ordnar läsfrämjande aktiviteter - t.ex. bokprat, boksamtal - Detta görs inte av skolbibliotekets personal</t>
@@ -927,7 +936,7 @@
     <t>VAR09_3_2</t>
   </si>
   <si>
-    <t>Skol72</t>
+    <t>Skol73</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal ordnar läsfrämjande aktiviteter - t.ex. bokprat, boksamtal - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -939,7 +948,7 @@
     <t>VAR09_3_3</t>
   </si>
   <si>
-    <t>Skol73</t>
+    <t>Skol74</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal fjärrlånar vid behov (från annat bibliotek) - Detta görs av skolbibliotekets personal</t>
@@ -951,7 +960,7 @@
     <t>VAR09_4_1</t>
   </si>
   <si>
-    <t>Skol74</t>
+    <t>Skol75</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal fjärrlånar vid behov (från annat bibliotek) - Detta görs inte av skolbibliotekets personal</t>
@@ -963,7 +972,7 @@
     <t>VAR09_4_2</t>
   </si>
   <si>
-    <t>Skol75</t>
+    <t>Skol76</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal fjärrlånar vid behov (från annat bibliotek) - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -975,7 +984,7 @@
     <t>VAR09_4_3</t>
   </si>
   <si>
-    <t>Skol76</t>
+    <t>Skol77</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal och lärarna planerar medieinköp tillsammans - ej läromedel - Detta görs av skolbibliotekets personal</t>
@@ -987,7 +996,7 @@
     <t>VAR09_5_1</t>
   </si>
   <si>
-    <t>Skol77</t>
+    <t>Skol78</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal och lärarna planerar medieinköp tillsammans - ej läromedel - Detta görs inte av skolbibliotekets personal</t>
@@ -999,7 +1008,7 @@
     <t>VAR09_5_2</t>
   </si>
   <si>
-    <t>Skol78</t>
+    <t>Skol79</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal och lärarna planerar medieinköp tillsammans - ej läromedel - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -1011,7 +1020,7 @@
     <t>VAR09_5_3</t>
   </si>
   <si>
-    <t>Skol79</t>
+    <t>Skol80</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal deltar i planerings-/arbetsmöten med lärarna - Detta görs av skolbibliotekets personal</t>
@@ -1023,7 +1032,7 @@
     <t>VAR09_6_1</t>
   </si>
   <si>
-    <t>Skol80</t>
+    <t>Skol81</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal deltar i planerings-/arbetsmöten med lärarna - Detta görs inte av skolbibliotekets personal</t>
@@ -1035,7 +1044,7 @@
     <t>VAR09_6_2</t>
   </si>
   <si>
-    <t>Skol81</t>
+    <t>Skol82</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal deltar i planerings-/arbetsmöten med lärarna - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -1047,7 +1056,7 @@
     <t>VAR09_6_3</t>
   </si>
   <si>
-    <t>Skol82</t>
+    <t>Skol83</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal gör särskilda insatser för elever med lässvårigheter - Detta görs av skolbibliotekets personal</t>
@@ -1059,7 +1068,7 @@
     <t>VAR09_7_1</t>
   </si>
   <si>
-    <t>Skol83</t>
+    <t>Skol84</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal gör särskilda insatser för elever med lässvårigheter - Detta görs inte av skolbibliotekets personal</t>
@@ -1071,7 +1080,7 @@
     <t>VAR09_7_2</t>
   </si>
   <si>
-    <t>Skol84</t>
+    <t>Skol85</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal gör särskilda insatser för elever med lässvårigheter - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -1083,7 +1092,7 @@
     <t>VAR09_7_3</t>
   </si>
   <si>
-    <t>Skol85</t>
+    <t>Skol86</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för skolarbetet - Detta görs av skolbibliotekets personal</t>
@@ -1095,7 +1104,7 @@
     <t>VAR09_8_1</t>
   </si>
   <si>
-    <t>Skol86</t>
+    <t>Skol87</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för skolarbetet - Detta görs inte av skolbibliotekets personal</t>
@@ -1107,7 +1116,7 @@
     <t>VAR09_8_2</t>
   </si>
   <si>
-    <t>Skol87</t>
+    <t>Skol88</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för skolarbetet - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -1119,7 +1128,7 @@
     <t>VAR09_8_3</t>
   </si>
   <si>
-    <t>Skol88</t>
+    <t>Skol89</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för läsning utanför skolarbetet - Detta görs av skolbibliotekets personal</t>
@@ -1131,7 +1140,7 @@
     <t>VAR09_9_1</t>
   </si>
   <si>
-    <t>Skol89</t>
+    <t>Skol90</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för läsning utanför skolarbetet - Detta görs inte av skolbibliotekets personal</t>
@@ -1143,7 +1152,7 @@
     <t>VAR09_9_2</t>
   </si>
   <si>
-    <t>Skol90</t>
+    <t>Skol91</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Skolbibliotekets personal hjälper eleverna att välja lämpligt/nivåanpassat material för läsning utanför skolarbetet - Vi har ingen avsatt skolbibliotekspersonal</t>
@@ -1155,7 +1164,7 @@
     <t>VAR09_9_3</t>
   </si>
   <si>
-    <t>Skol91</t>
+    <t>Skol92</t>
   </si>
   <si>
     <t>Vad görs och vad görs inte av skolbibliotekets personal? - Eventuell kommentar till ovanstående frågor</t>
@@ -1167,7 +1176,7 @@
     <t>VAR09C</t>
   </si>
   <si>
-    <t>Skol92</t>
+    <t>Skol93</t>
   </si>
   <si>
     <t>Totalt antal nyförvär av fysiska medier under kalanderåret, tryckta böcker och AV-medier</t>
@@ -1182,7 +1191,7 @@
     <t>Tot_fysiska nyförvärv</t>
   </si>
   <si>
-    <t>Skol93</t>
+    <t>Skol94</t>
   </si>
   <si>
     <t>Totalt antal utlån fysiska medier under kalenderåret, tryckta böcker och AV-medier</t>
@@ -1197,7 +1206,7 @@
     <t>Tot_utlan fysiska medier</t>
   </si>
   <si>
-    <t>Skol94</t>
+    <t>Skol95</t>
   </si>
   <si>
     <t>Totalt antal tryckta böcker och AV-medier</t>
@@ -1209,7 +1218,7 @@
     <t>Tot_fysiska medier</t>
   </si>
   <si>
-    <t>Skol95</t>
+    <t>Skol96</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - A. Tryckta medier, böcker, tidskrifter etc. totalt utom läromedel och klassuppsättningar - Bestånd 2011-12-31</t>
@@ -1224,7 +1233,7 @@
     <t>Matrix Open - Numeric</t>
   </si>
   <si>
-    <t>Skol96</t>
+    <t>Skol97</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - A. Tryckta medier, böcker, tidskrifter etc. totalt utom läromedel och klassuppsättningar - Antal nyförvärv under 2011 inklusive gåvor, donationer etc.</t>
@@ -1236,7 +1245,7 @@
     <t>fy_2</t>
   </si>
   <si>
-    <t>Skol97</t>
+    <t>Skol98</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - A. Tryckta medier, böcker, tidskrifter etc. totalt utom läromedel och klassuppsättningar - Antal utlån under hela 2011 (värdet kan skattas om utlåningen inte är datoriserad)</t>
@@ -1248,7 +1257,7 @@
     <t>fy_3</t>
   </si>
   <si>
-    <t>Skol98</t>
+    <t>Skol99</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - B. AV-medier, totalt utom läromedel och klassuppsättningar - Bestånd 2011-12-31</t>
@@ -1260,7 +1269,7 @@
     <t>av_1</t>
   </si>
   <si>
-    <t>Skol99</t>
+    <t>Skol100</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - B. AV-medier, totalt utom läromedel och klassuppsättningar - Antal nyförvärv under 2011 inklusive gåvor, donationer etc.</t>
@@ -1272,7 +1281,7 @@
     <t>av_2</t>
   </si>
   <si>
-    <t>Skol100</t>
+    <t>Skol101</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - B. AV-medier, totalt utom läromedel och klassuppsättningar - Antal utlån under hela 2011 (värdet kan skattas om utlåningen inte är datoriserad)</t>
@@ -1284,7 +1293,7 @@
     <t>av_3</t>
   </si>
   <si>
-    <t>Skol101</t>
+    <t>Skol102</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Summa antal medier A+B, totalt utom läromedel och klassuppsättningar - Bestånd 2011-12-31</t>
@@ -1296,7 +1305,7 @@
     <t>tot_1</t>
   </si>
   <si>
-    <t>Skol102</t>
+    <t>Skol103</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Summa antal medier A+B, totalt utom läromedel och klassuppsättningar - Antal nyförvärv under 2011 inklusive gåvor, donationer etc.</t>
@@ -1308,7 +1317,7 @@
     <t>tot_2</t>
   </si>
   <si>
-    <t>Skol103</t>
+    <t>Skol104</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Summa antal medier A+B, totalt utom läromedel och klassuppsättningar - Antal utlån under hela 2011 (värdet kan skattas om utlåningen inte är datoriserad)</t>
@@ -1320,7 +1329,7 @@
     <t>tot_3</t>
   </si>
   <si>
-    <t>Skol104</t>
+    <t>Skol105</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Biblioteket tillgång till antal titlar av licensierade e-böcker, antal egna licenser. Ej e-böcker som ingår i&amp;nbsp;E-lib eller liknande - Bestånd 2011-12-31</t>
@@ -1332,7 +1341,7 @@
     <t>ebok_1</t>
   </si>
   <si>
-    <t>Skol105</t>
+    <t>Skol106</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Biblioteket tillgång till antal titlar av licensierade e-böcker, antal egna licenser. Ej e-böcker som ingår i&amp;nbsp;E-lib eller liknande - Antal nyförvärv under 2011 inklusive gåvor, donationer etc.</t>
@@ -1344,7 +1353,7 @@
     <t>ebok_2</t>
   </si>
   <si>
-    <t>Skol106</t>
+    <t>Skol107</t>
   </si>
   <si>
     <t>Hur stort mediebestånd har skolbiblioteket och hur många nyförvärv och utlån gjordes under 2011? Om skolbiblioteket inte har datoriserat katalogsystem kan mediebeståndet skattas utifrån antal hyllmeter, 1 hyllmeter är 40 stycken medier. Räkna ej läromedel och klassuppsättningar som är kopplade till undervisningen. - Biblioteket tillgång till antal titlar av licensierade e-böcker, antal egna licenser. Ej e-böcker som ingår i&amp;nbsp;E-lib eller liknande - Antal utlån under hela 2011 (värdet kan skattas om utlåningen inte är datoriserad)</t>
@@ -1356,7 +1365,7 @@
     <t>ebok_3</t>
   </si>
   <si>
-    <t>Skol107</t>
+    <t>Skol108</t>
   </si>
   <si>
     <t>Hur många referensexemplar hade skolbiblioteket totalt 2011-12-31? Medier som bara läses på plats, inte lånas ut. Uppgiften används av Sveriges författarfond.</t>
@@ -1371,7 +1380,7 @@
     <t>Numeric - Field</t>
   </si>
   <si>
-    <t>Skol108</t>
+    <t>Skol109</t>
   </si>
   <si>
     <t>Hur många referensexemplar hade skolbiblioteket totalt 2011-12-31? Medier som bara läses på plats, inte lånas ut. Uppgiften används av Sveriges författarfond. - Eventuell kommentar till svaret</t>
@@ -1383,7 +1392,7 @@
     <t>VAR11C</t>
   </si>
   <si>
-    <t>Skol109</t>
+    <t>Skol110</t>
   </si>
   <si>
     <t>Hur många datorer/terminalplatser hade skolbiblioteket till sitt förfogande för biblioteksverksamheten 2011-12-31? - Antal datorer/terminalplatser med bildskärm och tangentbord (även surfplattor)</t>
@@ -1398,7 +1407,7 @@
     <t>VAR12_1</t>
   </si>
   <si>
-    <t>Skol110</t>
+    <t>Skol111</t>
   </si>
   <si>
     <t>Hur många datorer/terminalplatser hade skolbiblioteket till sitt förfogande för biblioteksverksamheten 2011-12-31? - - varav med tillgång till Internet</t>
@@ -1410,7 +1419,7 @@
     <t>VAR12_2</t>
   </si>
   <si>
-    <t>Skol111</t>
+    <t>Skol112</t>
   </si>
   <si>
     <t>Hur många datorer/terminalplatser hade skolbiblioteket till sitt förfogande för biblioteksverksamheten 2011-12-31? - - varav med tillgång till betaldatabaser</t>
@@ -1422,7 +1431,7 @@
     <t>VAR12_3</t>
   </si>
   <si>
-    <t>Skol112</t>
+    <t>Skol113</t>
   </si>
   <si>
     <t>Sammanräknade deluppgifter om kostnader för nyförvärv av fysiska medier och AV-medier</t>
@@ -1437,7 +1446,7 @@
     <t>Tot_ekonomi</t>
   </si>
   <si>
-    <t>Skol113</t>
+    <t>Skol114</t>
   </si>
   <si>
     <t>Vilka kostnader hade skolbiblioteket under 2011 för inköp av medier som inte är läromedel eller klassuppsättningar? Ange i hela kronor, exklusive mervärdesskatt. Avrunda inte till tusental. Skriv beloppet utan punkt, mellanslag eller kommatecken. - A. Kostnader för fysiska medier, ej läromedel eller klassuppsättningar, exkl mervärdesskatt</t>
@@ -1449,7 +1458,7 @@
     <t>VAR13_1</t>
   </si>
   <si>
-    <t>Skol114</t>
+    <t>Skol115</t>
   </si>
   <si>
     <t>Vilka kostnader hade skolbiblioteket under 2011 för inköp av medier som inte är läromedel eller klassuppsättningar? Ange i hela kronor, exklusive mervärdesskatt. Avrunda inte till tusental. Skriv beloppet utan punkt, mellanslag eller kommatecken. - B. Kostnader för virtuella medier, e-media och databaslicenser, ej kostnad för bibliotekskatalogsystem, exkl mervärdesskatt</t>
@@ -1461,7 +1470,7 @@
     <t>VAR13_2</t>
   </si>
   <si>
-    <t>Skol115</t>
+    <t>Skol116</t>
   </si>
   <si>
     <t>Vilka kostnader hade skolbiblioteket under 2011 för inköp av medier som inte är läromedel eller klassuppsättningar? Ange i hela kronor, exklusive mervärdesskatt. Avrunda inte till tusental. Skriv beloppet utan punkt, mellanslag eller kommatecken. - Totala kostnader (A+B) för medier 2011 exklusive mervärdesskatt. Respondentens egen totaluppgift</t>
@@ -1473,7 +1482,7 @@
     <t>VAR13_3</t>
   </si>
   <si>
-    <t>Skol116</t>
+    <t>Skol117</t>
   </si>
   <si>
     <t>Vilka kostnader hade skolbiblioteket under 2011 för inköp av medier som inte är läromedel eller klassuppsättningar? Ange i hela kronor, exklusive mervärdesskatt. Avrunda inte till tusental. Skriv beloppet utan punkt, mellanslag eller kommatecken. - Eventuell kommentar till svaret</t>
@@ -1485,7 +1494,7 @@
     <t>VAR13C</t>
   </si>
   <si>
-    <t>Skol117</t>
+    <t>Skol118</t>
   </si>
   <si>
     <t>Hur många betaldatabaser hade skolenheten tillgång till 2011-12-31? Exempel på en betaldatabas är NE, E-lib eller Naxos. - Licensierade betaldatabaser - antal titlar</t>
@@ -1497,7 +1506,7 @@
     <t>VAR14_1</t>
   </si>
   <si>
-    <t>Skol118</t>
+    <t>Skol119</t>
   </si>
   <si>
     <t>Hur många betaldatabaser hade skolenheten tillgång till 2011-12-31? Exempel på en betaldatabas är NE, E-lib eller Naxos. - Licensierade digitala läromedel - antal titlar</t>
@@ -1509,7 +1518,7 @@
     <t>VAR14_2</t>
   </si>
   <si>
-    <t>Skol119</t>
+    <t>Skol120</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbiblioteket organiserat inom undervisningen? - Ja</t>
@@ -1524,7 +1533,7 @@
     <t>VAR15_1_1</t>
   </si>
   <si>
-    <t>Skol120</t>
+    <t>Skol121</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbiblioteket organiserat inom undervisningen? - Nej</t>
@@ -1536,7 +1545,7 @@
     <t>VAR15_1_2</t>
   </si>
   <si>
-    <t>Skol121</t>
+    <t>Skol122</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbiblioteket organiserat inom undervisningen? - Finns inte/kan inte/ej relevant</t>
@@ -1548,7 +1557,7 @@
     <t>VAR15_1_3</t>
   </si>
   <si>
-    <t>Skol122</t>
+    <t>Skol123</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbibliotekets bokbuss i skolarbetet? - Ja</t>
@@ -1560,7 +1569,7 @@
     <t>VAR15_2_1</t>
   </si>
   <si>
-    <t>Skol123</t>
+    <t>Skol124</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbibliotekets bokbuss i skolarbetet? - Nej</t>
@@ -1572,7 +1581,7 @@
     <t>VAR15_2_2</t>
   </si>
   <si>
-    <t>Skol124</t>
+    <t>Skol125</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder eleverna på skolenheten folkbibliotekets bokbuss i skolarbetet? - Finns inte/kan inte/ej relevant</t>
@@ -1584,7 +1593,7 @@
     <t>VAR15_2_3</t>
   </si>
   <si>
-    <t>Skol125</t>
+    <t>Skol126</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder skolenheten skolbibliotekscentralen? - Ja</t>
@@ -1596,7 +1605,7 @@
     <t>VAR15_3_1</t>
   </si>
   <si>
-    <t>Skol126</t>
+    <t>Skol127</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder skolenheten skolbibliotekscentralen? - Nej</t>
@@ -1608,7 +1617,7 @@
     <t>VAR15_3_2</t>
   </si>
   <si>
-    <t>Skol127</t>
+    <t>Skol128</t>
   </si>
   <si>
     <t>Hur fungerar det på er skolenhet? - Använder skolenheten skolbibliotekscentralen? - Finns inte/kan inte/ej relevant</t>
@@ -1620,7 +1629,7 @@
     <t>VAR15_3_3</t>
   </si>
   <si>
-    <t>Skol128</t>
+    <t>Skol129</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever egen bärbar dator/surfplatta genom skolans försorg (en-till-en)? - Ja, alla elever</t>
@@ -1635,7 +1644,7 @@
     <t>VAR16_1_1</t>
   </si>
   <si>
-    <t>Skol129</t>
+    <t>Skol130</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever egen bärbar dator/surfplatta genom skolans försorg (en-till-en)? - Ja, vissa elever</t>
@@ -1647,7 +1656,7 @@
     <t>VAR16_1_2</t>
   </si>
   <si>
-    <t>Skol130</t>
+    <t>Skol131</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever egen bärbar dator/surfplatta genom skolans försorg (en-till-en)? - Nej, inga elever</t>
@@ -1659,7 +1668,7 @@
     <t>VAR16_1_3</t>
   </si>
   <si>
-    <t>Skol131</t>
+    <t>Skol132</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever tillgång till trådlöst nätverk? - Ja, alla elever</t>
@@ -1671,7 +1680,7 @@
     <t>VAR16_2_1</t>
   </si>
   <si>
-    <t>Skol132</t>
+    <t>Skol133</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever tillgång till trådlöst nätverk? - Ja, vissa elever</t>
@@ -1683,7 +1692,7 @@
     <t>VAR16_2_2</t>
   </si>
   <si>
-    <t>Skol133</t>
+    <t>Skol134</t>
   </si>
   <si>
     <t>Frågor om elevernas generella tillgång till IT: - Har elever tillgång till trådlöst nätverk? - Nej, inga elever</t>
@@ -1695,7 +1704,7 @@
     <t>VAR16_2_3</t>
   </si>
   <si>
-    <t>Skol134</t>
+    <t>Skol135</t>
   </si>
   <si>
     <t>Beskriv hur ni ordnar medieförsörjningen och utbildning i mediesökning till eleverna:</t>
@@ -1710,7 +1719,7 @@
     <t>Text - Memo</t>
   </si>
   <si>
-    <t>Skol135</t>
+    <t>Skol136</t>
   </si>
   <si>
     <t>Fyll i e-postadressen till den person som fyller i enkäten så skickar vi information när undersökningen rapporteras:</t>
@@ -1725,7 +1734,7 @@
     <t>Text - Field</t>
   </si>
   <si>
-    <t>Skol136</t>
+    <t>Skol137</t>
   </si>
   <si>
     <t>Här kan du lämna allmänna synpunkter och förklaringar:</t>
@@ -1740,7 +1749,7 @@
     <t>VAR19</t>
   </si>
   <si>
-    <t>Skol137</t>
+    <t>Skol138</t>
   </si>
   <si>
     <t>Hur lång tid tog det att samla in informationen och fylla i den här enkäten? Uppgifterna används för att beräkna kostnaderna för Sveriges officiella statistik. - Timmar</t>
@@ -1755,7 +1764,7 @@
     <t>VAR20_1</t>
   </si>
   <si>
-    <t>Skol138</t>
+    <t>Skol139</t>
   </si>
   <si>
     <t>Hur lång tid tog det att samla in informationen och fylla i den här enkäten? Uppgifterna används för att beräkna kostnaderna för Sveriges officiella statistik. - Minuter</t>
@@ -1858,7 +1867,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1877,6 +1886,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1966,11 +1983,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2013,150 +2031,147 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
@@ -2165,10 +2180,10 @@
         <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>38</v>
@@ -2178,7 +2193,7 @@
       <c r="A9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -2188,33 +2203,33 @@
         <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>43</v>
@@ -2224,30 +2239,30 @@
       <c r="A11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -2257,20 +2272,20 @@
         <v>49</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -2280,10 +2295,10 @@
         <v>52</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>51</v>
@@ -2293,7 +2308,7 @@
       <c r="A14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -2303,43 +2318,43 @@
         <v>55</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -2349,154 +2364,154 @@
         <v>62</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="F20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="B21" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="D21" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="E21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>89</v>
@@ -2504,704 +2519,695 @@
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>999</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="H25" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="I25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="J25" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>999</v>
+        <v>101</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="H27" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="I27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>103</v>
+      <c r="J27" s="0" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="H28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="B29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>119</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>999</v>
+        <v>101</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="H31" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="J31" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="C32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="E32" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>103</v>
+      <c r="J32" s="0" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="E35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H37" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="E38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="H38" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="E39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="H39" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="H40" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="E41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="H41" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="B42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="H42" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="E43" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="H43" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="E44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="E45" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H45" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>999</v>
+        <v>145</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="E46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="H46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>999</v>
@@ -3209,63 +3215,63 @@
     </row>
     <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="E47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="I47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I47" s="7" t="s">
+      <c r="B48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J47" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="F48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="H48" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>999</v>
@@ -3273,63 +3279,63 @@
     </row>
     <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="E49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="H49" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="7" t="s">
+      <c r="B50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J49" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="H50" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>999</v>
@@ -3337,31 +3343,31 @@
     </row>
     <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="E51" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="H51" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>999</v>
@@ -3369,63 +3375,63 @@
     </row>
     <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="E52" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J52" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="H53" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>999</v>
@@ -3433,31 +3439,31 @@
     </row>
     <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="E54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="H54" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>999</v>
@@ -3465,63 +3471,63 @@
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="0" t="s">
+      <c r="E55" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" s="7" t="s">
+      <c r="B56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="F56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>233</v>
-      </c>
       <c r="H56" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>999</v>
@@ -3529,63 +3535,63 @@
     </row>
     <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="E57" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="B58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J57" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="F58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="H58" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>999</v>
@@ -3593,31 +3599,31 @@
     </row>
     <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>245</v>
-      </c>
       <c r="H59" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>999</v>
@@ -3625,63 +3631,63 @@
     </row>
     <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="0" t="s">
+      <c r="E60" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="H60" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="B61" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="F61" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>253</v>
-      </c>
       <c r="H61" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>999</v>
@@ -3689,31 +3695,31 @@
     </row>
     <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="E62" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>257</v>
-      </c>
       <c r="H62" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>999</v>
@@ -3721,124 +3727,124 @@
     </row>
     <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="0" t="s">
+      <c r="E63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="B64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J63" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="0" t="s">
+      <c r="F64" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="H64" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>103</v>
+        <v>196</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="E65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="H65" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="0" t="s">
+      <c r="B66" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I65" s="7" t="s">
+      <c r="C66" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J65" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="F66" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="H66" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>999</v>
@@ -3846,31 +3852,31 @@
     </row>
     <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="0" t="s">
+      <c r="E67" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="H67" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>999</v>
@@ -3878,63 +3884,63 @@
     </row>
     <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="0" t="s">
+      <c r="H68" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="7" t="s">
+      <c r="B69" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="0" t="s">
+      <c r="F69" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="H69" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>999</v>
@@ -3942,31 +3948,31 @@
     </row>
     <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="0" t="s">
+      <c r="E70" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="H70" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>999</v>
@@ -3974,63 +3980,63 @@
     </row>
     <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D71" s="0" t="s">
+      <c r="E71" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="0" t="s">
+      <c r="H71" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I71" s="7" t="s">
+      <c r="B72" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J71" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="F72" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="H72" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>999</v>
@@ -4038,63 +4044,63 @@
     </row>
     <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="E73" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="0" t="s">
+      <c r="H73" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I73" s="7" t="s">
+      <c r="B74" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J73" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="F74" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="H74" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>999</v>
@@ -4102,31 +4108,31 @@
     </row>
     <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="H75" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>999</v>
@@ -4134,63 +4140,63 @@
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="E76" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="0" t="s">
+      <c r="H76" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="B77" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J76" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="F77" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="H77" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>999</v>
@@ -4198,31 +4204,31 @@
     </row>
     <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="E78" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="H78" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>999</v>
@@ -4230,63 +4236,63 @@
     </row>
     <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" s="0" t="s">
+      <c r="E79" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="0" t="s">
+      <c r="H79" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I79" s="7" t="s">
+      <c r="B80" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J79" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="F80" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>330</v>
-      </c>
       <c r="H80" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>999</v>
@@ -4294,63 +4300,63 @@
     </row>
     <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="0" t="s">
+      <c r="E81" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="0" t="s">
+      <c r="H81" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I81" s="7" t="s">
+      <c r="B82" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J81" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="0" t="s">
+      <c r="F82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="H82" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>999</v>
@@ -4358,31 +4364,31 @@
     </row>
     <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D83" s="0" t="s">
+      <c r="E83" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="H83" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>999</v>
@@ -4390,63 +4396,63 @@
     </row>
     <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" s="0" t="s">
+      <c r="E84" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="0" t="s">
+      <c r="H84" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="B85" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J84" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="0" t="s">
+      <c r="F85" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="H85" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>999</v>
@@ -4454,31 +4460,31 @@
     </row>
     <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="0" t="s">
+      <c r="E86" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>354</v>
-      </c>
       <c r="H86" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>999</v>
@@ -4486,63 +4492,63 @@
     </row>
     <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="E87" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="0" t="s">
+      <c r="H87" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I87" s="7" t="s">
+      <c r="B88" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J87" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="0" t="s">
+      <c r="F88" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>362</v>
-      </c>
       <c r="H88" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>999</v>
@@ -4550,63 +4556,63 @@
     </row>
     <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D89" s="0" t="s">
+      <c r="E89" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="0" t="s">
+      <c r="H89" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I89" s="7" t="s">
+      <c r="B90" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J89" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="F90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>370</v>
-      </c>
       <c r="H90" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>999</v>
@@ -4614,31 +4620,31 @@
     </row>
     <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D91" s="0" t="s">
+      <c r="E91" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>374</v>
-      </c>
       <c r="H91" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>999</v>
@@ -4646,883 +4652,883 @@
     </row>
     <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D92" s="0" t="s">
+      <c r="E92" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="0" t="s">
+      <c r="H92" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="B93" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="E93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>383</v>
+      <c r="H93" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="D94" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="E94" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="D95" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="E95" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="E96" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="E97" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D97" s="0" t="s">
+      <c r="H97" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" s="0" t="s">
+      <c r="I97" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H97" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="B98" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D98" s="0" t="s">
+      <c r="E98" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>405</v>
-      </c>
       <c r="H98" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="C99" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="0" t="s">
+      <c r="E99" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="H99" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D100" s="0" t="s">
+      <c r="E100" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="0" t="s">
+      <c r="H100" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="B101" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D101" s="0" t="s">
+      <c r="E101" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>417</v>
-      </c>
       <c r="H101" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="0" t="s">
+      <c r="E102" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>421</v>
-      </c>
       <c r="H102" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="0" t="s">
+      <c r="E103" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" s="0" t="s">
+      <c r="H103" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D104" s="0" t="s">
+      <c r="E104" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>429</v>
-      </c>
       <c r="H104" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D105" s="0" t="s">
+      <c r="E105" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" s="0" t="s">
+      <c r="H105" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="B106" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D106" s="0" t="s">
+      <c r="E106" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>437</v>
-      </c>
       <c r="H106" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D107" s="0" t="s">
+      <c r="E107" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>441</v>
-      </c>
       <c r="H107" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D108" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D108" s="0" t="s">
+      <c r="E108" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E108" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" s="0" t="s">
+      <c r="H108" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="B109" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="I108" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="C109" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="E109" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D109" s="0" t="s">
+      <c r="H109" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>446</v>
-      </c>
       <c r="I109" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="E110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>455</v>
-      </c>
       <c r="H110" s="0" t="s">
-        <v>142</v>
+        <v>449</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="D111" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D111" s="0" t="s">
+      <c r="E111" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" s="0" t="s">
+      <c r="H111" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H111" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="B112" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D112" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D112" s="0" t="s">
+      <c r="E112" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>463</v>
-      </c>
       <c r="H112" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="E113" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="H113" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="0" t="s">
+      <c r="B114" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="C114" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="D114" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D114" s="0" t="s">
+      <c r="E114" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D115" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D115" s="0" t="s">
+      <c r="E115" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>476</v>
-      </c>
       <c r="H115" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D116" s="0" t="s">
+      <c r="E116" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" s="0" t="s">
+      <c r="H116" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="H116" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B117" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D117" s="0" t="s">
+      <c r="E117" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>484</v>
-      </c>
       <c r="H117" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D118" s="0" t="s">
+      <c r="E118" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="H118" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="0" t="s">
+      <c r="E119" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="0" t="s">
+      <c r="H119" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="B120" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="C120" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="E120" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>497</v>
-      </c>
       <c r="H120" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J120" s="0" t="n">
-        <v>999</v>
+        <v>145</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="D121" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D121" s="0" t="s">
+      <c r="E121" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="0" t="s">
+      <c r="H121" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I121" s="7" t="s">
+      <c r="B122" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J121" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="0" t="s">
+      <c r="F122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>505</v>
-      </c>
       <c r="H122" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>999</v>
@@ -5530,31 +5536,31 @@
     </row>
     <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="E123" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="H123" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>999</v>
@@ -5562,63 +5568,63 @@
     </row>
     <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D124" s="0" t="s">
+      <c r="E124" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="E124" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" s="0" t="s">
+      <c r="H124" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="H124" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I124" s="7" t="s">
+      <c r="B125" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J124" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D125" s="0" t="s">
+      <c r="F125" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>517</v>
-      </c>
       <c r="H125" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J125" s="0" t="n">
         <v>999</v>
@@ -5626,31 +5632,31 @@
     </row>
     <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D126" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D126" s="0" t="s">
+      <c r="E126" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>521</v>
-      </c>
       <c r="H126" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>999</v>
@@ -5658,63 +5664,63 @@
     </row>
     <row r="127" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D127" s="0" t="s">
+      <c r="E127" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="E127" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" s="0" t="s">
+      <c r="H127" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I127" s="7" t="s">
+      <c r="B128" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J127" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D128" s="0" t="s">
+      <c r="F128" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H128" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J128" s="0" t="n">
         <v>999</v>
@@ -5722,63 +5728,63 @@
     </row>
     <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D129" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="E129" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="H129" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" s="0" t="s">
+      <c r="B130" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H129" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I129" s="7" t="s">
+      <c r="C130" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J129" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D130" s="0" t="s">
+      <c r="F130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="H130" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>999</v>
@@ -5786,31 +5792,31 @@
     </row>
     <row r="131" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D131" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D131" s="0" t="s">
+      <c r="E131" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>542</v>
-      </c>
       <c r="H131" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J131" s="0" t="n">
         <v>999</v>
@@ -5818,63 +5824,63 @@
     </row>
     <row r="132" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="E132" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" s="0" t="s">
+      <c r="H132" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="H132" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I132" s="7" t="s">
+      <c r="B133" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J132" s="0" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D133" s="0" t="s">
+      <c r="F133" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>550</v>
-      </c>
       <c r="H133" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J133" s="0" t="n">
         <v>999</v>
@@ -5882,31 +5888,31 @@
     </row>
     <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="C134" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D134" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="E134" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="H134" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="J134" s="0" t="n">
         <v>999</v>
@@ -5914,147 +5920,179 @@
     </row>
     <row r="135" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D135" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D135" s="0" t="s">
+      <c r="E135" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="E135" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" s="0" t="s">
+      <c r="H135" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="H135" s="0" t="s">
+      <c r="B136" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="I135" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="C136" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D136" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="E136" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="0" t="s">
+      <c r="H136" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="E136" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>564</v>
-      </c>
       <c r="I136" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="E137" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="H137" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="I137" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="0" t="s">
+      <c r="B138" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="H137" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="C138" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="D138" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="E138" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>574</v>
-      </c>
       <c r="H138" s="0" t="s">
-        <v>142</v>
+        <v>562</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="D139" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="D139" s="0" t="s">
+      <c r="E139" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="E139" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="0" t="s">
+      <c r="H139" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="H139" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>103</v>
+      <c r="B140" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
